--- a/output/compo fish/Mann_Whitney_test_fish_prey_not_prey_rel_all_nut.xlsx
+++ b/output/compo fish/Mann_Whitney_test_fish_prey_not_prey_rel_all_nut.xlsx
@@ -26,27 +26,30 @@
     <t xml:space="preserve">As</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">Ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mn</t>
   </si>
   <si>
@@ -54,9 +57,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">P</t>
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.218181145756258</v>
+        <v>0.000712758942006847</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -424,7 +424,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0891031368911025</v>
+        <v>0.00000245083453239043</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -435,7 +435,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0596506538002346</v>
+        <v>0.000000437603813112014</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.082450087273079</v>
+        <v>0.000188909683955304</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -457,7 +457,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.111593265382144</v>
+        <v>0.0000773285943019888</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -468,7 +468,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.674872202504923</v>
+        <v>0.0186279809634519</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -479,18 +479,18 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.624465525129448</v>
+        <v>0.0816556651137754</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.205115787802149</v>
+        <v>0.0000847274067207474</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -498,10 +498,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0596506538002346</v>
+        <v>0.000000000171555091625599</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -509,13 +509,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.00402474500200305</v>
+        <v>0.000000159070685564544</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -523,10 +523,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0461250227051387</v>
+        <v>0.000000000125656593430103</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -534,10 +534,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0129640544571599</v>
+        <v>0.000000000000194275607585403</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.192612125022533</v>
+        <v>0.0000546708964788386</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
